--- a/biology/Médecine/Karl_Ferdinand_von_Gräfe/Karl_Ferdinand_von_Gräfe.xlsx
+++ b/biology/Médecine/Karl_Ferdinand_von_Gräfe/Karl_Ferdinand_von_Gräfe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karl_Ferdinand_von_Gr%C3%A4fe</t>
+          <t>Karl_Ferdinand_von_Gräfe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Ferdinand von Graefe (né le 8 mars 1787 à Varsovie – mort le 4 juillet 1840), est un médecin allemand[1]. Il est le père de l'ophtalmologue Albrecht von Graefe (1828–1870) et le grand-père de l'homme politique Albrecht von Graefe (1868-1933)[réf. souhaitée].
-Reconnu comme un pionnier, notamment, en chirurgie esthétique, il a édité, avec Philipp Franz von Walther, la revue Journal für Chirurgie und Augenheilkunde[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Ferdinand von Graefe (né le 8 mars 1787 à Varsovie – mort le 4 juillet 1840), est un médecin allemand. Il est le père de l'ophtalmologue Albrecht von Graefe (1828–1870) et le grand-père de l'homme politique Albrecht von Graefe (1868-1933)[réf. souhaitée].
+Reconnu comme un pionnier, notamment, en chirurgie esthétique, il a édité, avec Philipp Franz von Walther, la revue Journal für Chirurgie und Augenheilkunde.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karl_Ferdinand_von_Gr%C3%A4fe</t>
+          <t>Karl_Ferdinand_von_Gräfe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Graefe étudie la médecine à l'université Martin-Luther de Halle-Wittenberg et à l'université de Leipzig. Il obtient sa licence à Leipzig et est nommé médecin privé du duc Alexis-Frédéric-Christian d'Anhalt-Bernbourg en 1807. 
-En 1811, il devient professeur de chirurgie et directeur de l'institut d'ophtalmologie de l'université Humboldt de Berlin. Ses cours attirent des étudiants de toute l'Europe[3]. Au cours de la Sixième Coalition contre Napoléon, il est surintendant des hôpitaux militaires[4].
-Lors de la signature de la paix en 1815, Graefe retourne à ses activités. Il est nommé médecin du grand État-Major général de l'Armée prussienne, puis directeur du Friedrich Wilhelm Institute et de l'Académie médico-chirurgicale de l'hôpital universitaire de la Charité de Berlin[3].
+En 1811, il devient professeur de chirurgie et directeur de l'institut d'ophtalmologie de l'université Humboldt de Berlin. Ses cours attirent des étudiants de toute l'Europe. Au cours de la Sixième Coalition contre Napoléon, il est surintendant des hôpitaux militaires.
+Lors de la signature de la paix en 1815, Graefe retourne à ses activités. Il est nommé médecin du grand État-Major général de l'Armée prussienne, puis directeur du Friedrich Wilhelm Institute et de l'Académie médico-chirurgicale de l'hôpital universitaire de la Charité de Berlin.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karl_Ferdinand_von_Gr%C3%A4fe</t>
+          <t>Karl_Ferdinand_von_Gräfe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Voici une liste de ses principales œuvres[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voici une liste de ses principales œuvres :
 (de) Normen für die Ablösung größerer Gliedmaßen (Berlin, 1812).
 (de) Rhinoplastik (1818).
 (de) Neue Beiträge zur Kunst, Teile des Angesichts organisch zu ersetzen (1821).
